--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний LAR(Det))/СХК ИБПО_LAR (Средний LAR(Det))(01.09.2015 23-55-15).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний LAR(Det))/СХК ИБПО_LAR (Средний LAR(Det))(01.09.2015 23-55-15).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний LAR(Det))\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -231,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +438,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -762,10 +759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="A1:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
